--- a/data/pca/factorExposure/factorExposure_2012-12-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-20.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0001814297218078524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001807125580513189</v>
+      </c>
+      <c r="C2">
+        <v>-0.03159350651504995</v>
+      </c>
+      <c r="D2">
+        <v>0.00549728960907743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0005929377543522211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006421600543455935</v>
+      </c>
+      <c r="C4">
+        <v>-0.08398786895561958</v>
+      </c>
+      <c r="D4">
+        <v>0.07903581892568816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002630892956213043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.0144667322296644</v>
+      </c>
+      <c r="C6">
+        <v>-0.1139282763664997</v>
+      </c>
+      <c r="D6">
+        <v>0.03416044939639529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.00164952611084342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005164378339223069</v>
+      </c>
+      <c r="C7">
+        <v>-0.05822573885836544</v>
+      </c>
+      <c r="D7">
+        <v>0.03024886339414896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0008323972665747386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005875442557376737</v>
+      </c>
+      <c r="C8">
+        <v>-0.03785029626236768</v>
+      </c>
+      <c r="D8">
+        <v>0.03948241266463029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003326533313096036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004575417275761643</v>
+      </c>
+      <c r="C9">
+        <v>-0.07025840122196662</v>
+      </c>
+      <c r="D9">
+        <v>0.07311327516994243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.003211753019928923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005443858951716132</v>
+      </c>
+      <c r="C10">
+        <v>-0.05821118125328985</v>
+      </c>
+      <c r="D10">
+        <v>-0.1983207263614628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002411174076233267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005893830319788276</v>
+      </c>
+      <c r="C11">
+        <v>-0.07976684880923121</v>
+      </c>
+      <c r="D11">
+        <v>0.06022388673374945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.000602450432582843</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004207219297595154</v>
+      </c>
+      <c r="C12">
+        <v>-0.0640964541221323</v>
+      </c>
+      <c r="D12">
+        <v>0.04655427949082349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002102031854516516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009161576158100334</v>
+      </c>
+      <c r="C13">
+        <v>-0.06898542877667986</v>
+      </c>
+      <c r="D13">
+        <v>0.05808050796620228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0007471750475872988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001656077752772063</v>
+      </c>
+      <c r="C14">
+        <v>-0.04540191851415614</v>
+      </c>
+      <c r="D14">
+        <v>0.003788125541306658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0006912660429647306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006109714757323833</v>
+      </c>
+      <c r="C15">
+        <v>-0.04205739536665043</v>
+      </c>
+      <c r="D15">
+        <v>0.02864660490007036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005679431568331626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00517255857423762</v>
+      </c>
+      <c r="C16">
+        <v>-0.06502932221360185</v>
+      </c>
+      <c r="D16">
+        <v>0.04902632452852197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0004194346109594652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009100804702191215</v>
+      </c>
+      <c r="C20">
+        <v>-0.06553135601122584</v>
+      </c>
+      <c r="D20">
+        <v>0.04196365734484291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005843933250160525</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01003495541107634</v>
+      </c>
+      <c r="C21">
+        <v>-0.02088333608060026</v>
+      </c>
+      <c r="D21">
+        <v>0.03757596956053595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01577821364929199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00657837939699859</v>
+      </c>
+      <c r="C22">
+        <v>-0.09364661265516121</v>
+      </c>
+      <c r="D22">
+        <v>0.1078811994077501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01607669933526855</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006393986815520918</v>
+      </c>
+      <c r="C23">
+        <v>-0.09445889058630495</v>
+      </c>
+      <c r="D23">
+        <v>0.1079062188124696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001229546247132863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005649175955993136</v>
+      </c>
+      <c r="C24">
+        <v>-0.07643079254336581</v>
+      </c>
+      <c r="D24">
+        <v>0.06385853966088099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003926889294624877</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003191247387676899</v>
+      </c>
+      <c r="C25">
+        <v>-0.07855295383583957</v>
+      </c>
+      <c r="D25">
+        <v>0.06715842540341076</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004445534774067089</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003756629441443158</v>
+      </c>
+      <c r="C26">
+        <v>-0.04119579734634529</v>
+      </c>
+      <c r="D26">
+        <v>0.02385360582216235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004032995262389458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.00068521179399006</v>
+      </c>
+      <c r="C28">
+        <v>-0.1068471043025198</v>
+      </c>
+      <c r="D28">
+        <v>-0.3163735457297501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001208179337487143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003484078828644688</v>
+      </c>
+      <c r="C29">
+        <v>-0.05112736571062317</v>
+      </c>
+      <c r="D29">
+        <v>0.006828045901433674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002778020844297177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009695664814716348</v>
+      </c>
+      <c r="C30">
+        <v>-0.1416756346070361</v>
+      </c>
+      <c r="D30">
+        <v>0.09591326719709038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.001058838903032581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006360641622474249</v>
+      </c>
+      <c r="C31">
+        <v>-0.04458080227048749</v>
+      </c>
+      <c r="D31">
+        <v>0.03078589301497692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001051817857129571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004196832909010015</v>
+      </c>
+      <c r="C32">
+        <v>-0.03992919748306393</v>
+      </c>
+      <c r="D32">
+        <v>0.01885982191446988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.00238907872837184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008671577458615182</v>
+      </c>
+      <c r="C33">
+        <v>-0.0865677811583067</v>
+      </c>
+      <c r="D33">
+        <v>0.06524221705758002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004354409230458439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004096361126675771</v>
+      </c>
+      <c r="C34">
+        <v>-0.05805208042857359</v>
+      </c>
+      <c r="D34">
+        <v>0.05376026161650738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001385221680922378</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005056157981581609</v>
+      </c>
+      <c r="C35">
+        <v>-0.04023221899729374</v>
+      </c>
+      <c r="D35">
+        <v>0.01700502968017634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.00364156596030453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001068869841635264</v>
+      </c>
+      <c r="C36">
+        <v>-0.02459737311594591</v>
+      </c>
+      <c r="D36">
+        <v>0.02179255444210683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002684269207179819</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009496123611525149</v>
+      </c>
+      <c r="C38">
+        <v>-0.0341684238967214</v>
+      </c>
+      <c r="D38">
+        <v>0.01488188109826985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01122116057594772</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003378026824551797</v>
+      </c>
+      <c r="C39">
+        <v>-0.1155670130827971</v>
+      </c>
+      <c r="D39">
+        <v>0.07342637624004854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009264423548852513</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002834344620841783</v>
+      </c>
+      <c r="C40">
+        <v>-0.09010147540720201</v>
+      </c>
+      <c r="D40">
+        <v>0.01130366109905491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>7.540745564116299e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007346484903511166</v>
+      </c>
+      <c r="C41">
+        <v>-0.03817910808432829</v>
+      </c>
+      <c r="D41">
+        <v>0.03569848148260831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002977910829513069</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.00418498104685697</v>
+      </c>
+      <c r="C43">
+        <v>-0.05359739012780743</v>
+      </c>
+      <c r="D43">
+        <v>0.02436038012634852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.00429199261595289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003571880370207115</v>
+      </c>
+      <c r="C44">
+        <v>-0.109304472578841</v>
+      </c>
+      <c r="D44">
+        <v>0.06683013460816592</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001038893361135244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002311806541921564</v>
+      </c>
+      <c r="C46">
+        <v>-0.03323438061047121</v>
+      </c>
+      <c r="D46">
+        <v>0.03440215897765248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0001475035683374389</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002812735897529683</v>
+      </c>
+      <c r="C47">
+        <v>-0.03745774618528143</v>
+      </c>
+      <c r="D47">
+        <v>0.02184700444615761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003860186316880041</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006759158945295309</v>
+      </c>
+      <c r="C48">
+        <v>-0.03108973035589358</v>
+      </c>
+      <c r="D48">
+        <v>0.03263927050315039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01120179717521039</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01586859890831033</v>
+      </c>
+      <c r="C49">
+        <v>-0.1851011668173425</v>
+      </c>
+      <c r="D49">
+        <v>0.01541455460339911</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001545950934582462</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003751085121725748</v>
+      </c>
+      <c r="C50">
+        <v>-0.0435339565334651</v>
+      </c>
+      <c r="D50">
+        <v>0.03616451412560723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0008474164191128652</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00449180616046786</v>
+      </c>
+      <c r="C51">
+        <v>-0.02592867695317599</v>
+      </c>
+      <c r="D51">
+        <v>0.01944432050065967</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001550257261684905</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02134677528026414</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697434855476646</v>
+      </c>
+      <c r="D53">
+        <v>0.02636862358644525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001179946980732961</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008862622224462378</v>
+      </c>
+      <c r="C54">
+        <v>-0.05401295943358447</v>
+      </c>
+      <c r="D54">
+        <v>0.04378311661763482</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003088944411771702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009888465647647119</v>
+      </c>
+      <c r="C55">
+        <v>-0.1094453086035921</v>
+      </c>
+      <c r="D55">
+        <v>0.03905315139778139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003208867082338128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0204853942381379</v>
+      </c>
+      <c r="C56">
+        <v>-0.1740836791912335</v>
+      </c>
+      <c r="D56">
+        <v>0.02133925526611308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006522271559219582</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01960894368933083</v>
+      </c>
+      <c r="C58">
+        <v>-0.1102796374358729</v>
+      </c>
+      <c r="D58">
+        <v>0.05608224297511382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.005692162414368479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01018087136654558</v>
+      </c>
+      <c r="C59">
+        <v>-0.1647529510013413</v>
+      </c>
+      <c r="D59">
+        <v>-0.3263388180199068</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003277322770424467</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.0245914506712534</v>
+      </c>
+      <c r="C60">
+        <v>-0.2225995519192143</v>
+      </c>
+      <c r="D60">
+        <v>0.03390431133390779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01362419991863782</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001552578801348847</v>
+      </c>
+      <c r="C61">
+        <v>-0.09481362911483729</v>
+      </c>
+      <c r="D61">
+        <v>0.05507861956980361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1624810816051083</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1453270470961407</v>
+      </c>
+      <c r="C62">
+        <v>-0.09435522930269416</v>
+      </c>
+      <c r="D62">
+        <v>0.04059891585095615</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0004721729642637258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006440686575109432</v>
+      </c>
+      <c r="C63">
+        <v>-0.05498179052199487</v>
+      </c>
+      <c r="D63">
+        <v>0.02772891125362311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0003994669916250824</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01553087686668575</v>
+      </c>
+      <c r="C64">
+        <v>-0.1048304121545492</v>
+      </c>
+      <c r="D64">
+        <v>0.05843013146801896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.003231361114664905</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01829918955512574</v>
+      </c>
+      <c r="C65">
+        <v>-0.1242534691370167</v>
+      </c>
+      <c r="D65">
+        <v>0.02445847818205472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.006925399574430335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01338604977002518</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596402000173253</v>
+      </c>
+      <c r="D66">
+        <v>0.1119432092845541</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003837363177797998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0157355471722983</v>
+      </c>
+      <c r="C67">
+        <v>-0.06499947076482872</v>
+      </c>
+      <c r="D67">
+        <v>0.02676327351607857</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.005224954504944214</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0008366810126545202</v>
+      </c>
+      <c r="C68">
+        <v>-0.08703765554359319</v>
+      </c>
+      <c r="D68">
+        <v>-0.2608890914933852</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001922491712618774</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006326239079230983</v>
+      </c>
+      <c r="C69">
+        <v>-0.05028751743007594</v>
+      </c>
+      <c r="D69">
+        <v>0.03896980354307089</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002584920590987874</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001842411915449141</v>
+      </c>
+      <c r="C70">
+        <v>-0.002706044870322794</v>
+      </c>
+      <c r="D70">
+        <v>0.001520133738987965</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0005778310721106161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005950487929671512</v>
+      </c>
+      <c r="C71">
+        <v>-0.09461081650076843</v>
+      </c>
+      <c r="D71">
+        <v>-0.3069711688676144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003491167638822541</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01659895931627021</v>
+      </c>
+      <c r="C72">
+        <v>-0.1536441086787757</v>
+      </c>
+      <c r="D72">
+        <v>0.01940714613984443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0106894197250763</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03147738171202272</v>
+      </c>
+      <c r="C73">
+        <v>-0.2801255816737428</v>
+      </c>
+      <c r="D73">
+        <v>0.05772643039214294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004603674580619528</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002212762029903761</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046026417470509</v>
+      </c>
+      <c r="D74">
+        <v>0.03554136942663453</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002162439615923867</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01125780442629991</v>
+      </c>
+      <c r="C75">
+        <v>-0.1244735343447543</v>
+      </c>
+      <c r="D75">
+        <v>0.0237547599267358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009199800335785258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02214530309759026</v>
+      </c>
+      <c r="C76">
+        <v>-0.1486017782392963</v>
+      </c>
+      <c r="D76">
+        <v>0.0579983836059126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.002008541695855163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02366671093528859</v>
+      </c>
+      <c r="C77">
+        <v>-0.1209575507678483</v>
+      </c>
+      <c r="D77">
+        <v>0.08250926135125515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001206299854852743</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01499328830976067</v>
+      </c>
+      <c r="C78">
+        <v>-0.09584179287519554</v>
+      </c>
+      <c r="D78">
+        <v>0.07210946457278013</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02369998469980196</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03802626324426257</v>
+      </c>
+      <c r="C79">
+        <v>-0.1565072368351949</v>
+      </c>
+      <c r="D79">
+        <v>0.03233068762286514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006796215571971177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.0104316259973672</v>
+      </c>
+      <c r="C80">
+        <v>-0.03977767254804789</v>
+      </c>
+      <c r="D80">
+        <v>0.02806896474128096</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0009489181739676315</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01560982447376687</v>
+      </c>
+      <c r="C81">
+        <v>-0.126758575768158</v>
+      </c>
+      <c r="D81">
+        <v>0.03976015536834498</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005913633297508081</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02021633648346795</v>
+      </c>
+      <c r="C82">
+        <v>-0.1417278321063831</v>
+      </c>
+      <c r="D82">
+        <v>0.03494384258509595</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009339833392047595</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.0100366695230688</v>
+      </c>
+      <c r="C83">
+        <v>-0.05510478707181594</v>
+      </c>
+      <c r="D83">
+        <v>0.05166133433708769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01361581755518352</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01170112427074976</v>
+      </c>
+      <c r="C84">
+        <v>-0.03723933140847117</v>
+      </c>
+      <c r="D84">
+        <v>-0.008674414235597104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01410288078270209</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02858738864461925</v>
+      </c>
+      <c r="C85">
+        <v>-0.1241690310267922</v>
+      </c>
+      <c r="D85">
+        <v>0.04600979044436143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001197991925946524</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005959910780382534</v>
+      </c>
+      <c r="C86">
+        <v>-0.04954566192362849</v>
+      </c>
+      <c r="D86">
+        <v>0.03121082406083792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003368742862914965</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01036522637859852</v>
+      </c>
+      <c r="C87">
+        <v>-0.1281198755738988</v>
+      </c>
+      <c r="D87">
+        <v>0.07421874011100614</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01132546301809833</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002800617831775559</v>
+      </c>
+      <c r="C88">
+        <v>-0.06492849172092915</v>
+      </c>
+      <c r="D88">
+        <v>0.01827743175424818</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01230842123582489</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001019684055366319</v>
+      </c>
+      <c r="C89">
+        <v>-0.1468371566701079</v>
+      </c>
+      <c r="D89">
+        <v>-0.3368306357063829</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0002522522419266518</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007267684426686691</v>
+      </c>
+      <c r="C90">
+        <v>-0.1209381883657889</v>
+      </c>
+      <c r="D90">
+        <v>-0.31896240501366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0008858270806381735</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01063620684539774</v>
+      </c>
+      <c r="C91">
+        <v>-0.100360025212498</v>
+      </c>
+      <c r="D91">
+        <v>0.02183282261323054</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.006599770098026782</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001324661714458882</v>
+      </c>
+      <c r="C92">
+        <v>-0.1355430722298252</v>
+      </c>
+      <c r="D92">
+        <v>-0.3274719368565433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0006062722870544691</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005184681000332372</v>
+      </c>
+      <c r="C93">
+        <v>-0.1053062784551022</v>
+      </c>
+      <c r="D93">
+        <v>-0.3007395230741218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004104748837052065</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02288474368666579</v>
+      </c>
+      <c r="C94">
+        <v>-0.146497010975632</v>
+      </c>
+      <c r="D94">
+        <v>0.05265528687456727</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004486269937475767</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01662013398373717</v>
+      </c>
+      <c r="C95">
+        <v>-0.1247077518168963</v>
+      </c>
+      <c r="D95">
+        <v>0.06092822603457092</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001931905197756087</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03690890422864022</v>
+      </c>
+      <c r="C97">
+        <v>-0.2145100308725444</v>
+      </c>
+      <c r="D97">
+        <v>-0.002257609454692734</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.002166807875801451</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03730501845856624</v>
+      </c>
+      <c r="C98">
+        <v>-0.2495211684289168</v>
+      </c>
+      <c r="D98">
+        <v>0.04863666757871378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9850809114790374</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9818643186284299</v>
+      </c>
+      <c r="C99">
+        <v>0.1191971567894355</v>
+      </c>
+      <c r="D99">
+        <v>-0.02692439026162537</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001109101927414528</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003521932125123895</v>
+      </c>
+      <c r="C101">
+        <v>-0.05130377893540992</v>
+      </c>
+      <c r="D101">
+        <v>0.006949785039971909</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
